--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2658701.23987965</v>
+        <v>2734230.909544456</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800617</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>304.4053514208621</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>94.32392630195935</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.31590541686235</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>354.5388293958671</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +952,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>125.1849693405052</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>125.8721928563316</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1111,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>367.7594353101856</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>148.3720633136142</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>12.53995287689413</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>88.47572607734799</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>120.1338591269778</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>36.28627157371908</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>139.6970786618128</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.96726959571198</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>116.181695029996</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.6451640076508</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,19 +2292,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>20.26317694825408</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>143.2925104849745</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2609,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>54.67957310629264</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>45.41934813295935</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2950,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.012174021609362</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3004,16 +3006,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3044,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>191.6534898356752</v>
       </c>
       <c r="T34" t="n">
-        <v>169.9068027896051</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.90295310323233</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002174</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>54.779515165909</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>141.121281352534</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>190.7955476484028</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>87.267737590756</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>152.3458132526254</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2366.086203674652</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="C2" t="n">
-        <v>1997.12368673424</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="D2" t="n">
-        <v>1638.85798812749</v>
+        <v>978.1693879460875</v>
       </c>
       <c r="E2" t="n">
-        <v>1253.069735529245</v>
+        <v>978.1693879460875</v>
       </c>
       <c r="F2" t="n">
-        <v>842.0838307396377</v>
+        <v>567.18348315648</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>149.2196750546668</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>149.2196750546668</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X2" t="n">
-        <v>2366.086203674652</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y2" t="n">
-        <v>2366.086203674652</v>
+        <v>1723.03492661696</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4525,13 +4527,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.975310878425</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C5" t="n">
-        <v>1661.975310878425</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>1303.709612271675</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>1303.709612271675</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>892.7237074820671</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2120.85878285464</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>2120.85878285464</v>
       </c>
       <c r="W5" t="n">
-        <v>2048.575150942547</v>
+        <v>1768.090127584526</v>
       </c>
       <c r="X5" t="n">
-        <v>2048.575150942547</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048.575150942547</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4665,22 +4667,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1705.823007113086</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>1336.860490172674</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>978.5947915659237</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>592.8065389676794</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2492.249630524863</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2492.249630524863</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.422847177208</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.422847177208</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.422847177208</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.2978374347314</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C10" t="n">
-        <v>325.2978374347314</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D10" t="n">
-        <v>325.2978374347314</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E10" t="n">
-        <v>325.2978374347314</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>325.2978374347314</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>325.2978374347314</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V10" t="n">
-        <v>325.2978374347314</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="W10" t="n">
-        <v>325.2978374347314</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="X10" t="n">
-        <v>325.2978374347314</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="Y10" t="n">
-        <v>325.2978374347314</v>
+        <v>259.1560728187103</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5023,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5048,7 +5050,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>534.3905543375959</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>365.454371409689</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>365.454371409689</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="W13" t="n">
-        <v>755.183133481126</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X13" t="n">
-        <v>755.183133481126</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y13" t="n">
-        <v>534.3905543375959</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5257,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155874</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,37 +5290,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,19 +5360,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2050.644882483981</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>524.5778132641556</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1357.808110293445</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1068.679471507003</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>813.9949833011162</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>524.5778132641556</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>524.5778132641556</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>524.5778132641556</v>
       </c>
     </row>
     <row r="17">
@@ -5492,28 +5494,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5528,16 +5530,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1039.489963795367</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705745</v>
+        <v>870.7229774352686</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705745</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705745</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705745</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
         <v>359.1696912903951</v>
@@ -5668,7 +5670,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1157.775607842362</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>1157.775607842362</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W19" t="n">
-        <v>1157.775607842362</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X19" t="n">
-        <v>929.7860569443444</v>
+        <v>870.7229774352686</v>
       </c>
       <c r="Y19" t="n">
-        <v>708.9934778008143</v>
+        <v>870.7229774352686</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5744,16 +5746,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,13 +5770,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>551.5142687221453</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>401.3976293098095</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>401.3976293098095</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>401.3976293098095</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>233.2223076296301</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5938,22 +5940,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>720.4504516500522</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,22 +5974,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -6005,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250804</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K24" t="n">
-        <v>2649.889045452864</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L24" t="n">
-        <v>2896.654173359328</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>3665.022319751789</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>3994.884947415821</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>4274.425012634519</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>434.3285960683721</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6181,16 +6183,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>1354.17636097712</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>1064.759190940159</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X25" t="n">
-        <v>836.769640042142</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y25" t="n">
-        <v>615.9770608986119</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,16 +6226,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6245,7 +6247,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.773754790662</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O27" t="n">
-        <v>2302.237516093321</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2507.25999687553</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.722798873107</v>
+        <v>4230.423978142506</v>
       </c>
       <c r="C28" t="n">
-        <v>558.7866159452001</v>
+        <v>4061.487795214599</v>
       </c>
       <c r="D28" t="n">
-        <v>558.7866159452001</v>
+        <v>3911.371155802263</v>
       </c>
       <c r="E28" t="n">
-        <v>410.873522362807</v>
+        <v>3763.45806221987</v>
       </c>
       <c r="F28" t="n">
-        <v>263.9835748648966</v>
+        <v>3616.56811472196</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>3616.56811472196</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V28" t="n">
-        <v>909.3712637033467</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W28" t="n">
-        <v>909.3712637033467</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X28" t="n">
-        <v>909.3712637033467</v>
+        <v>4632.865022116275</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.3712637033467</v>
+        <v>4412.072442972745</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,22 +6448,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>190.6805289025654</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K30" t="n">
-        <v>339.7502131046252</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L30" t="n">
-        <v>953.6472828615139</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
-        <v>1722.015429253975</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>251.3864319045502</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>101.2697924922145</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>101.2697924922145</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324571</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6682,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,25 +6712,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977053</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>2279.445761859783</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2484.468242641992</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.3990000507114</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C34" t="n">
-        <v>562.3990000507114</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D34" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="T34" t="n">
-        <v>1327.293237437089</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U34" t="n">
-        <v>1327.293237437089</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V34" t="n">
-        <v>1072.608749231202</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W34" t="n">
-        <v>783.1915791942415</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X34" t="n">
-        <v>783.1915791942415</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y34" t="n">
-        <v>562.3990000507114</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6959,28 +6961,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>675.2581065529677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C37" t="n">
-        <v>675.2581065529677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D37" t="n">
-        <v>675.2581065529677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705745</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705745</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S37" t="n">
-        <v>1332.383638732624</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T37" t="n">
-        <v>1332.383638732624</v>
+        <v>4637.069157803797</v>
       </c>
       <c r="U37" t="n">
-        <v>1332.383638732624</v>
+        <v>4347.940519017355</v>
       </c>
       <c r="V37" t="n">
-        <v>1077.699150526737</v>
+        <v>4093.256030811468</v>
       </c>
       <c r="W37" t="n">
-        <v>1077.699150526737</v>
+        <v>3803.838860774507</v>
       </c>
       <c r="X37" t="n">
-        <v>1077.699150526737</v>
+        <v>3575.84930987649</v>
       </c>
       <c r="Y37" t="n">
-        <v>856.9065713832074</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,19 +7186,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2205.048458376741</v>
+        <v>2227.840212610278</v>
       </c>
       <c r="P39" t="n">
-        <v>2410.070939158951</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>4205.109445852781</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>4260.44228945471</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>4260.44228945471</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>4205.109445852781</v>
       </c>
     </row>
     <row r="41">
@@ -7403,34 +7405,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7488,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>316.9584588710877</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775518</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7570,19 +7572,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1306.193495155475</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>1017.064856369034</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>705.2471179313758</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>705.2471179313758</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7640,16 +7642,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7664,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M45" t="n">
-        <v>1595.645765494011</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N45" t="n">
-        <v>1925.508393158044</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2205.048458376741</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2410.070939158951</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>447.0175521403266</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="C46" t="n">
-        <v>447.0175521403266</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D46" t="n">
-        <v>296.9009127279909</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E46" t="n">
-        <v>296.9009127279909</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F46" t="n">
-        <v>296.9009127279909</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>296.9009127279909</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7807,19 +7809,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1345.031610706765</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1345.031610706765</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>1345.031610706765</v>
       </c>
       <c r="V46" t="n">
-        <v>675.007103038344</v>
+        <v>1345.031610706765</v>
       </c>
       <c r="W46" t="n">
-        <v>675.007103038344</v>
+        <v>1345.031610706765</v>
       </c>
       <c r="X46" t="n">
-        <v>447.0175521403266</v>
+        <v>1117.042059808748</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.0175521403266</v>
+        <v>896.249480665218</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>73.53204524670059</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>73.53204524670076</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>297.2466435761029</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,25 +9956,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.47535963978235</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>52.49733361305248</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10358,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10425,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776761</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.49733361305314</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776761</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10905,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>104.6241510367957</v>
       </c>
       <c r="Q39" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>29.47535963978228</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776761</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814756</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>26.30010351959133</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>185.2612894846702</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>81.85048239657641</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.2795515029159</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>170.0556573685814</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>14.26866435988529</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>159.5688032336832</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24421,10 +24423,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>108.8451328388535</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>111.8139953570849</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>103.4944802345768</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>141.4088740013219</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25078,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25123,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>6.267320147928046</v>
       </c>
       <c r="T34" t="n">
-        <v>51.64075826878414</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25217,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25318,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>143.0178568803709</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>163.8051381861858</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>38.7106988294033</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25795,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>30.75201340998649</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>61.64609077678013</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>45.57499673097783</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
   </sheetData>
@@ -26314,37 +26316,37 @@
         <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="F2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="G2" t="n">
+        <v>606095.0425934482</v>
+      </c>
+      <c r="H2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="I2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="J2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="K2" t="n">
         <v>606095.0425934485</v>
-      </c>
-      <c r="G2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="H2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="I2" t="n">
-        <v>606095.0425934482</v>
-      </c>
-      <c r="J2" t="n">
-        <v>606095.0425934482</v>
-      </c>
-      <c r="K2" t="n">
-        <v>606095.0425934484</v>
       </c>
       <c r="L2" t="n">
         <v>606095.0425934487</v>
       </c>
       <c r="M2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934482</v>
       </c>
       <c r="N2" t="n">
         <v>606095.0425934487</v>
@@ -26353,7 +26355,7 @@
         <v>606095.0425934485</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934488</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="C4" t="n">
         <v>174490.7773218262</v>
@@ -26430,10 +26432,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26442,13 +26444,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230234</v>
@@ -26457,7 +26459,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26497,13 +26499,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26522,46 +26524,46 @@
         <v>-211010.3629549603</v>
       </c>
       <c r="C6" t="n">
-        <v>378957.5162595836</v>
+        <v>378957.5162595841</v>
       </c>
       <c r="D6" t="n">
-        <v>378957.5162595838</v>
+        <v>378957.5162595839</v>
       </c>
       <c r="E6" t="n">
-        <v>-40355.86538446667</v>
+        <v>-40355.86538446655</v>
       </c>
       <c r="F6" t="n">
-        <v>484804.1710924295</v>
+        <v>484804.1710924294</v>
       </c>
       <c r="G6" t="n">
+        <v>484804.1710924292</v>
+      </c>
+      <c r="H6" t="n">
         <v>484804.1710924294</v>
       </c>
-      <c r="H6" t="n">
-        <v>484804.1710924295</v>
-      </c>
       <c r="I6" t="n">
-        <v>484804.1710924292</v>
+        <v>484804.1710924294</v>
       </c>
       <c r="J6" t="n">
-        <v>308380.9518998364</v>
+        <v>308380.9518998368</v>
       </c>
       <c r="K6" t="n">
-        <v>484804.1710924295</v>
+        <v>484804.1710924297</v>
       </c>
       <c r="L6" t="n">
         <v>484804.1710924297</v>
       </c>
       <c r="M6" t="n">
-        <v>350003.1558585923</v>
+        <v>350003.1558585921</v>
       </c>
       <c r="N6" t="n">
         <v>484804.1710924297</v>
       </c>
       <c r="O6" t="n">
-        <v>484804.1710924297</v>
+        <v>484804.1710924295</v>
       </c>
       <c r="P6" t="n">
-        <v>484804.1710924294</v>
+        <v>484804.1710924298</v>
       </c>
     </row>
   </sheetData>
@@ -26738,16 +26740,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26765,19 +26767,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>109.3788185999329</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>57.6073899429019</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,16 +27438,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>120.1051426060689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>59.24534062492785</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>126.0391981677841</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.95978732560566</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>39.11661043152583</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>102.8521041946751</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>167.2920273050432</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>67.69516276444716</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -29764,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33418,40 +33420,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,10 +33493,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
@@ -33503,7 +33505,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33512,10 +33514,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33527,7 +33529,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33591,7 +33593,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,10 +33605,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33655,40 +33657,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,10 +33730,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33740,7 +33742,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33749,10 +33751,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33764,7 +33766,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33828,7 +33830,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,10 +33842,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33892,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33977,7 +33979,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33986,10 +33988,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34001,7 +34003,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34065,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34129,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34214,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34223,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34238,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34302,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34366,40 +34368,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,10 +34441,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
@@ -34451,7 +34453,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34460,10 +34462,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34475,7 +34477,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34539,7 +34541,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34551,10 +34553,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35255,19 +35257,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>280.6254601782252</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,7 +35971,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>383.956422297167</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
@@ -35981,7 +35983,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36452,10 +36454,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>504.3400585076275</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>117.4883924248565</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.40751256795913</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -36926,10 +36928,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875337003</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
@@ -37166,7 +37168,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>140.5103663981272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37233,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337003</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37470,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>311.7175659683203</v>
       </c>
       <c r="Q39" t="n">
-        <v>215.6591577951388</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37707,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>180.0507982277215</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337003</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37944,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341718</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38181,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2734230.909544456</v>
+        <v>2727213.894652745</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.32392630195935</v>
+        <v>102.5980685144042</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>70.11928264603856</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>125.1849693405052</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>206.1608002224379</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>148.3720633136142</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.53995287689413</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>36.28627157371908</v>
+        <v>77.74146402679895</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.6970786618128</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>101.118589139012</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>65.96726959571198</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.6451640076508</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.26317694825408</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002187</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>45.41934813295935</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>63.77510169114053</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>4.012174021609362</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>191.6534898356752</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>115.5269768002174</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>54.779515165909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>141.121281352534</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.3458132526254</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1336.435086552838</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1336.435086552838</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>978.1693879460875</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E2" t="n">
-        <v>978.1693879460875</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="F2" t="n">
-        <v>567.18348315648</v>
+        <v>171.5007985225859</v>
       </c>
       <c r="G2" t="n">
-        <v>149.2196750546668</v>
+        <v>157.5773944611768</v>
       </c>
       <c r="H2" t="n">
-        <v>149.2196750546668</v>
+        <v>157.5773944611768</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2113.174258592771</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1723.03492661696</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>261.099450950038</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7222632714563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.85878285464</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.85878285464</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="W5" t="n">
-        <v>1768.090127584526</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X5" t="n">
-        <v>1394.624369323446</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1394.624369323446</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>519.8857516585174</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2492.249630524863</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2492.249630524863</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2139.480975254749</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.480975254749</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.341643278937</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.4894537511405</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511405</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>259.1560728187103</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>259.1560728187103</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>259.1560728187103</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>259.1560728187103</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,22 +5053,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1151.268357465867</v>
+        <v>1420.389539217702</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.268357465867</v>
+        <v>1131.26090043126</v>
       </c>
       <c r="V13" t="n">
-        <v>896.5838692599799</v>
+        <v>876.5764122253731</v>
       </c>
       <c r="W13" t="n">
-        <v>896.5838692599799</v>
+        <v>587.1592421884125</v>
       </c>
       <c r="X13" t="n">
-        <v>668.5943183619626</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.8017392184324</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,67 +5263,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>524.5778132641556</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C16" t="n">
-        <v>355.6416303362487</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6416303362487</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1357.808110293445</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1068.679471507003</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>813.9949833011162</v>
+        <v>683.9422174472136</v>
       </c>
       <c r="W16" t="n">
-        <v>524.5778132641556</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="X16" t="n">
-        <v>524.5778132641556</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="Y16" t="n">
-        <v>524.5778132641556</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,34 +5500,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>870.7229774352686</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1098.712528333286</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1098.712528333286</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>870.7229774352686</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>870.7229774352686</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,19 +5752,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5779,25 +5779,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>720.4504516500522</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>551.5142687221453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>401.3976293098095</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>401.3976293098095</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>401.3976293098095</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>233.2223076296301</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>720.4504516500522</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>720.4504516500522</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>720.4504516500522</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6147,16 +6147,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1270.926719659885</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.134140516355</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4230.423978142506</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C28" t="n">
-        <v>4061.487795214599</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D28" t="n">
-        <v>3911.371155802263</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E28" t="n">
-        <v>3763.45806221987</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>3616.56811472196</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>3616.56811472196</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V28" t="n">
-        <v>4860.854573014292</v>
+        <v>933.2366688293943</v>
       </c>
       <c r="W28" t="n">
-        <v>4860.854573014292</v>
+        <v>643.8194987924337</v>
       </c>
       <c r="X28" t="n">
-        <v>4632.865022116275</v>
+        <v>579.400204154918</v>
       </c>
       <c r="Y28" t="n">
-        <v>4412.072442972745</v>
+        <v>579.400204154918</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028562</v>
@@ -6466,10 +6466,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6542,22 +6542,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>251.3864319045502</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>101.2697924922145</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>101.2697924922145</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>420.3226148324571</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6682,55 +6682,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395486</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1305.326886885503</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1305.326886885503</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1016.198248099061</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>761.5137598931742</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>472.0965898562135</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,34 +6949,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395486</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014291</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803797</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4347.940519017355</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V37" t="n">
-        <v>4093.256030811468</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>3803.838860774507</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>3575.84930987649</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2227.840212610278</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4205.109445852781</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.85945949167</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>4549.85945949167</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4549.85945949167</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4549.85945949167</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>4260.44228945471</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4260.44228945471</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>4205.109445852781</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395486</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7572,19 +7572,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>933.2366688293931</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>933.2366688293931</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>705.2471179313758</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>705.2471179313758</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.598437470156</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.440640161986</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441948</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>714.6010158349783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7809,19 +7809,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1345.031610706765</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1345.031610706765</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1345.031610706765</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1345.031610706765</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1345.031610706765</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1117.042059808748</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>896.249480665218</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298005</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776761</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776761</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>104.6241510367957</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776761</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>96.03744927814756</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23433,10 +23433,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>185.2612894846702</v>
+        <v>143.8060970315903</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>81.85048239657641</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>151.019054184816</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>101.2795515029159</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>14.26866435988529</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24180,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>159.5688032336832</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338452</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>103.4944802345768</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24660,16 +24660,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>161.9345536978966</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>141.4088740013219</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>6.267320147928046</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>163.8051381861858</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>38.7106988294033</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>45.57499673097783</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448196</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448197</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448196</v>
-      </c>
       <c r="E2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="F2" t="n">
         <v>606095.0425934483</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="H2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="I2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="J2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="K2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="L2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="M2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="N2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="L2" t="n">
-        <v>606095.0425934487</v>
-      </c>
-      <c r="M2" t="n">
-        <v>606095.0425934482</v>
-      </c>
-      <c r="N2" t="n">
-        <v>606095.0425934487</v>
-      </c>
       <c r="O2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="P2" t="n">
         <v>606095.0425934485</v>
-      </c>
-      <c r="P2" t="n">
-        <v>606095.0425934488</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
         <v>174490.7773218262</v>
@@ -26426,40 +26426,40 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26475,37 +26475,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-211010.3629549603</v>
+        <v>-211010.3629549604</v>
       </c>
       <c r="C6" t="n">
+        <v>378957.516259584</v>
+      </c>
+      <c r="D6" t="n">
         <v>378957.5162595841</v>
       </c>
-      <c r="D6" t="n">
-        <v>378957.5162595839</v>
-      </c>
       <c r="E6" t="n">
-        <v>-40355.86538446655</v>
+        <v>-41330.4566441888</v>
       </c>
       <c r="F6" t="n">
-        <v>484804.1710924294</v>
+        <v>483829.579832708</v>
       </c>
       <c r="G6" t="n">
-        <v>484804.1710924292</v>
+        <v>483829.579832708</v>
       </c>
       <c r="H6" t="n">
-        <v>484804.1710924294</v>
+        <v>483829.579832708</v>
       </c>
       <c r="I6" t="n">
-        <v>484804.1710924294</v>
+        <v>483829.5798327075</v>
       </c>
       <c r="J6" t="n">
-        <v>308380.9518998368</v>
+        <v>307406.360640115</v>
       </c>
       <c r="K6" t="n">
-        <v>484804.1710924297</v>
+        <v>483829.5798327082</v>
       </c>
       <c r="L6" t="n">
-        <v>484804.1710924297</v>
+        <v>483829.5798327081</v>
       </c>
       <c r="M6" t="n">
-        <v>350003.1558585921</v>
+        <v>349028.5645988706</v>
       </c>
       <c r="N6" t="n">
-        <v>484804.1710924297</v>
+        <v>483829.579832708</v>
       </c>
       <c r="O6" t="n">
-        <v>484804.1710924295</v>
+        <v>483829.5798327078</v>
       </c>
       <c r="P6" t="n">
-        <v>484804.1710924298</v>
+        <v>483829.579832708</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>57.6073899429019</v>
+        <v>49.33324773045706</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>86.05160619575659</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.37316471551392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>126.0391981677841</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>56.97491248506026</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27824,7 +27824,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>5.984738727581032</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>96.92615468724688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>102.8521041946751</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.2920273050432</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
@@ -33505,7 +33505,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33514,10 +33514,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33593,7 +33593,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,10 +33605,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33742,7 +33742,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33751,10 +33751,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33830,7 +33830,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,10 +33842,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34064,10 +34064,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34216,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34225,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34304,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34368,40 +34368,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,10 +34441,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
@@ -34453,7 +34453,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34462,10 +34462,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34541,7 +34541,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34553,10 +34553,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O27" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875337003</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337003</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>311.7175659683203</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875337003</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2951542341718</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2727213.894652745</v>
+        <v>2732153.157501777</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>102.5980685144042</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>102.598068514404</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>70.11928264603856</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>52.10844059186253</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>148.3404384503978</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>270.7773459850746</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>38.85099796338665</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>206.1608002224379</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>307.9222910483176</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>25.3159054168628</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>71.26586356860268</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>77.74146402679895</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>44.21256991826638</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>101.118589139012</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>14.7366432835706</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002187</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>179.0218248301897</v>
       </c>
       <c r="X28" t="n">
-        <v>63.77510169114053</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>237.3965091869248</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>87.65220976161997</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4191,19 +4191,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C2" t="n">
-        <v>940.7524019189439</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D2" t="n">
-        <v>582.4867033121934</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>582.4867033121934</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>171.5007985225859</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>157.5773944611768</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>157.5773944611768</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4372,10 +4372,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1206.080506218543</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117056</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F4" t="n">
-        <v>430.0992512117056</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G4" t="n">
-        <v>261.099450950038</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1435.441956461044</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1435.441956461044</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1077.176257854293</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>691.3880052560489</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>684.4425045068455</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2368.607930856721</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2368.607930856721</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="6">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.8857516585174</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>262.1862143682812</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>93.1864141066136</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>519.8857516585174</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>519.8857516585174</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>519.8857516585174</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>519.8857516585174</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>519.8857516585174</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>519.8857516585174</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>519.8857516585174</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>764.6872557005406</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>378.8990031022964</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4846,10 +4846,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>546.4805193761949</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>377.544336448288</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>227.4276970359523</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>79.5146034535592</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5038,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5056,19 +5056,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>359.1696912903951</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C13" t="n">
-        <v>359.1696912903951</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D13" t="n">
-        <v>359.1696912903951</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E13" t="n">
         <v>359.1696912903951</v>
@@ -5196,19 +5196,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1420.389539217702</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1131.26090043126</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>876.5764122253731</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>587.1592421884125</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X13" t="n">
-        <v>359.1696912903951</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y13" t="n">
-        <v>359.1696912903951</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.5250474102529</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5466,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1254.337098939852</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="V16" t="n">
-        <v>683.9422174472136</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W16" t="n">
-        <v>394.5250474102529</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X16" t="n">
-        <v>394.5250474102529</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y16" t="n">
-        <v>394.5250474102529</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="17">
@@ -5518,7 +5518,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5731,40 +5731,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5779,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>485.5200852635876</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5940,19 +5940,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6013,28 +6013,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636255</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526318</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>112.1025897265188</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6147,16 +6147,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,34 +6220,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636255</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526318</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>397.7517393246783</v>
+        <v>881.753191430675</v>
       </c>
       <c r="C28" t="n">
-        <v>397.7517393246783</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
         <v>247.6350999123426</v>
@@ -6384,16 +6384,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>933.2366688293943</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>643.8194987924337</v>
+        <v>1063.401656260915</v>
       </c>
       <c r="X28" t="n">
-        <v>579.400204154918</v>
+        <v>1063.401656260915</v>
       </c>
       <c r="Y28" t="n">
-        <v>579.400204154918</v>
+        <v>1063.401656260915</v>
       </c>
     </row>
     <row r="29">
@@ -6442,34 +6442,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6688,43 +6688,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028562</v>
@@ -7177,22 +7177,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1099.383571417482</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>810.2549326310402</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>555.5704444251534</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="41">
@@ -7414,7 +7414,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7599,7 +7599,7 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
         <v>869.3083006011506</v>
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7839,16 +7839,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>359.9065542451757</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229573</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776738</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298005</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776738</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>95.98095753002515</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23469,13 +23469,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>143.8060970315903</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,19 +23706,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>177.3349911401229</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>151.019054184816</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="20">
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="23">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338452</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>107.5011735064013</v>
       </c>
       <c r="X28" t="n">
-        <v>161.9345536978966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>48.84084321165253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.8953512967693</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>14.45548819888944</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="10">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
         <v>606095.0425934483</v>
@@ -26328,34 +26328,34 @@
         <v>606095.0425934483</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="H2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934482</v>
       </c>
       <c r="I2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="J2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="K2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="L2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="M2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="N2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>606095.0425934484</v>
-      </c>
-      <c r="P2" t="n">
-        <v>606095.0425934485</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,31 +26423,31 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
+        <v>29303.54555230237</v>
+      </c>
+      <c r="G4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29303.54555230232</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26475,37 +26475,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-211010.3629549604</v>
+        <v>-211010.3629549602</v>
       </c>
       <c r="C6" t="n">
-        <v>378957.516259584</v>
+        <v>378957.5162595842</v>
       </c>
       <c r="D6" t="n">
         <v>378957.5162595841</v>
       </c>
       <c r="E6" t="n">
-        <v>-41330.4566441888</v>
+        <v>-40453.32451043873</v>
       </c>
       <c r="F6" t="n">
-        <v>483829.579832708</v>
+        <v>484706.7119664571</v>
       </c>
       <c r="G6" t="n">
-        <v>483829.579832708</v>
+        <v>484706.7119664573</v>
       </c>
       <c r="H6" t="n">
-        <v>483829.579832708</v>
+        <v>484706.711966457</v>
       </c>
       <c r="I6" t="n">
-        <v>483829.5798327075</v>
+        <v>484706.7119664573</v>
       </c>
       <c r="J6" t="n">
-        <v>307406.360640115</v>
+        <v>308283.4927738644</v>
       </c>
       <c r="K6" t="n">
-        <v>483829.5798327082</v>
+        <v>484706.7119664573</v>
       </c>
       <c r="L6" t="n">
-        <v>483829.5798327081</v>
+        <v>484706.7119664575</v>
       </c>
       <c r="M6" t="n">
-        <v>349028.5645988706</v>
+        <v>349905.6967326205</v>
       </c>
       <c r="N6" t="n">
-        <v>483829.579832708</v>
+        <v>484706.7119664573</v>
       </c>
       <c r="O6" t="n">
-        <v>483829.5798327078</v>
+        <v>484706.7119664575</v>
       </c>
       <c r="P6" t="n">
-        <v>483829.579832708</v>
+        <v>484706.7119664573</v>
       </c>
     </row>
   </sheetData>
@@ -26737,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541008</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26773,7 +26773,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>49.33324773045706</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>267.1330321640651</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>86.05160619575659</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>265.4437315703972</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>56.97491248506026</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>117.3198908784085</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>5.984738727581032</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>98.95375469339388</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.1051426060685</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734237</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35980,10 +35980,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>350.3150673110547</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091987</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091987</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
